--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Proc-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Proc-Thbd.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.86054266666667</v>
+        <v>29.17403400000001</v>
       </c>
       <c r="N2">
-        <v>104.581628</v>
+        <v>87.52210200000002</v>
       </c>
       <c r="O2">
-        <v>0.4332699312717731</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="P2">
-        <v>0.433269931271773</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="Q2">
-        <v>6.193463452330668</v>
+        <v>5.183175576576001</v>
       </c>
       <c r="R2">
-        <v>55.741171070976</v>
+        <v>46.64858018918401</v>
       </c>
       <c r="S2">
-        <v>0.4332699312717731</v>
+        <v>0.3835306213274714</v>
       </c>
       <c r="T2">
-        <v>0.433269931271773</v>
+        <v>0.3835306213274714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>120.371875</v>
       </c>
       <c r="O3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="P3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="Q3">
         <v>7.128582933333334</v>
@@ -632,10 +632,10 @@
         <v>64.15724640000001</v>
       </c>
       <c r="S3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
       <c r="T3">
-        <v>0.4986871499868453</v>
+        <v>0.5274816184042599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.474677333333333</v>
+        <v>6.769034333333334</v>
       </c>
       <c r="N4">
-        <v>16.424032</v>
+        <v>20.307103</v>
       </c>
       <c r="O4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826866</v>
       </c>
       <c r="P4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826867</v>
       </c>
       <c r="Q4">
-        <v>0.9726530737493334</v>
+        <v>1.202613715797334</v>
       </c>
       <c r="R4">
-        <v>8.753877663744001</v>
+        <v>10.823523442176</v>
       </c>
       <c r="S4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826866</v>
       </c>
       <c r="T4">
-        <v>0.06804291874138163</v>
+        <v>0.08898776026826867</v>
       </c>
     </row>
   </sheetData>
